--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1185,10 +1185,10 @@
         <v>1.0</v>
       </c>
       <c r="E34" s="13">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="F34" s="13">
-        <v>590.0</v>
+        <v>5900.0</v>
       </c>
     </row>
     <row r="35">

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -171,7 +171,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,13 +180,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -201,11 +207,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -213,37 +219,37 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -253,13 +259,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -268,13 +274,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -313,7 +319,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -324,7 +330,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -333,24 +339,24 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -372,13 +378,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,7 +401,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -413,10 +419,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -447,91 +453,91 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -551,6 +557,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffc9daf8"/>
       <rgbColor rgb="ffd0e0e3"/>
@@ -752,12 +759,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -790,10 +797,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1041,12 +1048,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1361,10 +1368,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2178,7 +2185,7 @@
         <v>320</v>
       </c>
       <c r="F25" s="28">
-        <v>9600</v>
+        <v>20600</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="19"/>
